--- a/data/trans_bre/DC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DC-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.395177150210806</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16.09284722176923</v>
+        <v>16.09284722176924</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3504882198934261</v>
@@ -649,7 +649,7 @@
         <v>0.9616569965267753</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.7371356600365434</v>
+        <v>0.737135660036544</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.951030124748249</v>
+        <v>1.459928107040138</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.351335349340706</v>
+        <v>9.279994537290484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.714310021951366</v>
+        <v>5.644319660847037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11.86114670851796</v>
+        <v>11.68981133143781</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05230178442516087</v>
+        <v>0.07877341789249412</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.647903148910554</v>
+        <v>0.6299130982507947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4773345833922713</v>
+        <v>0.4756667698736031</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4858874505387539</v>
+        <v>0.4854912253633594</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.413941199957568</v>
+        <v>9.317944063451607</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.59965977272984</v>
+        <v>17.24183850658376</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.19074652181824</v>
+        <v>13.27669399264995</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.1884143099424</v>
+        <v>19.84450270321357</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6706595656561191</v>
+        <v>0.6460532244365376</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.613057138240065</v>
+        <v>1.637223817701455</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.61903184781646</v>
+        <v>1.642995603138808</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.050253607344164</v>
+        <v>1.012763698201174</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.757066465723589</v>
+        <v>7.571041942551552</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.938792840815077</v>
+        <v>6.898438512849498</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.262401934101252</v>
+        <v>5.311617043418895</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15.88191113373311</v>
+        <v>16.19027688796913</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4595723512464308</v>
+        <v>0.4447501839605626</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5285054848591275</v>
+        <v>0.513523759504747</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4897086302083498</v>
+        <v>0.5122324867162997</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7348447527497937</v>
+        <v>0.7708483967771809</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.87451236299961</v>
+        <v>14.98037783506877</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.46222107696629</v>
+        <v>13.64096436927476</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.12010948072168</v>
+        <v>11.50639081861143</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23.47449376401786</v>
+        <v>23.7504667073068</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.139371788306759</v>
+        <v>1.162408264479906</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.310790178171445</v>
+        <v>1.339587213720674</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.460170733151529</v>
+        <v>1.497367900268642</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.358070244138307</v>
+        <v>1.399928149990016</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.157878420553859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18.43716102898675</v>
+        <v>18.43716102898674</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6430329866904484</v>
@@ -849,7 +849,7 @@
         <v>0.7384772996075355</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.798238040314692</v>
+        <v>0.7982380403146916</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.388939490520269</v>
+        <v>9.28747514334305</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.82613219527505</v>
+        <v>12.18158164485638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.947567226010571</v>
+        <v>2.849210958197411</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.75496835066942</v>
+        <v>13.20554957875278</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3480487857364216</v>
+        <v>0.3885347056510324</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.25611935145163</v>
+        <v>1.288384760632481</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2870782849539416</v>
+        <v>0.2866319890662041</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5353943483416838</v>
+        <v>0.5144006962889371</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.25612799011046</v>
+        <v>18.55432212918922</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.67035958465644</v>
+        <v>19.6920091735754</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.43264634462636</v>
+        <v>9.234004835076739</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.81793775427549</v>
+        <v>22.80469398147926</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9588335227618516</v>
+        <v>0.9990454699132877</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.19267859911405</v>
+        <v>3.351215745481574</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.374047400579392</v>
+        <v>1.350875333310199</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.125423705148442</v>
+        <v>1.111134666475301</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>11.06114119365501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14.84725543546482</v>
+        <v>14.84725543546481</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5476495893532755</v>
@@ -949,7 +949,7 @@
         <v>1.032287470534055</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6648434063829484</v>
+        <v>0.6648434063829479</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.365529041095059</v>
+        <v>6.831277257688708</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>11.90746740689284</v>
+        <v>11.68075580949037</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.560843728188359</v>
+        <v>7.743496481815162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11.28807925825836</v>
+        <v>11.00841241631062</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3004754458050985</v>
+        <v>0.3424426495191162</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.060113490479431</v>
+        <v>1.052734466051839</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6042725528570222</v>
+        <v>0.6349443642146804</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.466357340817812</v>
+        <v>0.4547726310174773</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.10111441432352</v>
+        <v>14.18837551634061</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.13034089103493</v>
+        <v>18.30563148710537</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.26138731346992</v>
+        <v>14.52647931394766</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.56355831190712</v>
+        <v>18.57297548342121</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8279625454827314</v>
+        <v>0.8205807012989625</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.189596480258826</v>
+        <v>2.232722597061729</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.504669161132544</v>
+        <v>1.595460711838974</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9276332862771108</v>
+        <v>0.9304352880169863</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.9384691024083183</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.808396249509027</v>
+        <v>0.8083962495090268</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.283651067204268</v>
+        <v>8.431571158255895</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.7875171564892</v>
+        <v>11.85925806825169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.170497759235309</v>
+        <v>7.274261026989022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15.27168137121055</v>
+        <v>15.35911522618484</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4519317465834685</v>
+        <v>0.4546716916184907</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.045841415162478</v>
+        <v>1.067702637526519</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7139150164216908</v>
+        <v>0.7029937715241739</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6811060292531288</v>
+        <v>0.672448582027846</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.35138051635385</v>
+        <v>12.35397188269451</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.26889722562887</v>
+        <v>15.40414556339215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.53709383991108</v>
+        <v>10.60558085366872</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.17898014513667</v>
+        <v>19.34355373925219</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7476800096992231</v>
+        <v>0.7526148752086742</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.580358074638911</v>
+        <v>1.602365023054144</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.222453830722748</v>
+        <v>1.214217204574177</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9458026815752817</v>
+        <v>0.9510730090775431</v>
       </c>
     </row>
     <row r="19">
